--- a/outputs/tabulka_online.xlsx
+++ b/outputs/tabulka_online.xlsx
@@ -31412,11 +31412,11 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Crataegus monogyna</t>
+          <t>Cirsium pannonicum</t>
         </is>
       </c>
       <c r="C2080">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2081">
@@ -31427,11 +31427,11 @@
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Crepis pannonica</t>
+          <t>Crataegus monogyna</t>
         </is>
       </c>
       <c r="C2081">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="2082">

--- a/outputs/tabulka_online.xlsx
+++ b/outputs/tabulka_online.xlsx
@@ -35187,11 +35187,11 @@
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>Carex humilis</t>
+          <t>Carex caryophyllea</t>
         </is>
       </c>
       <c r="C2333">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2334">
@@ -35202,11 +35202,11 @@
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>Carex michelii</t>
+          <t>Carex humilis</t>
         </is>
       </c>
       <c r="C2334">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2335">
@@ -50892,11 +50892,11 @@
       </c>
       <c r="B3384" t="inlineStr">
         <is>
-          <t>Carex flacca</t>
+          <t>Carex caryophyllea</t>
         </is>
       </c>
       <c r="C3384">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3385">
@@ -50907,11 +50907,11 @@
       </c>
       <c r="B3385" t="inlineStr">
         <is>
-          <t>Carex humilis</t>
+          <t>Carex flacca</t>
         </is>
       </c>
       <c r="C3385">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3386">
@@ -50922,11 +50922,11 @@
       </c>
       <c r="B3386" t="inlineStr">
         <is>
-          <t>Carex michelii</t>
+          <t>Carex humilis</t>
         </is>
       </c>
       <c r="C3386">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3387">
@@ -50937,7 +50937,7 @@
       </c>
       <c r="B3387" t="inlineStr">
         <is>
-          <t>Carex tomentosa</t>
+          <t>Carex michelii</t>
         </is>
       </c>
       <c r="C3387">
@@ -50952,11 +50952,11 @@
       </c>
       <c r="B3388" t="inlineStr">
         <is>
-          <t>Centaurea scabiosa</t>
+          <t>Carex tomentosa</t>
         </is>
       </c>
       <c r="C3388">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3389">
@@ -50967,11 +50967,11 @@
       </c>
       <c r="B3389" t="inlineStr">
         <is>
-          <t>Chamaecytisus ratisbonensis</t>
+          <t>Centaurea scabiosa</t>
         </is>
       </c>
       <c r="C3389">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3390">
@@ -50982,7 +50982,7 @@
       </c>
       <c r="B3390" t="inlineStr">
         <is>
-          <t>Cornus sanguinea</t>
+          <t>Chamaecytisus ratisbonensis</t>
         </is>
       </c>
       <c r="C3390">
@@ -50997,11 +50997,11 @@
       </c>
       <c r="B3391" t="inlineStr">
         <is>
-          <t>Crataegus monogyna</t>
+          <t>Cornus sanguinea</t>
         </is>
       </c>
       <c r="C3391">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3392">
@@ -51012,11 +51012,11 @@
       </c>
       <c r="B3392" t="inlineStr">
         <is>
-          <t>Dorycnium pentaphyllum agg.</t>
+          <t>Crataegus monogyna</t>
         </is>
       </c>
       <c r="C3392">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3393">
@@ -51027,11 +51027,11 @@
       </c>
       <c r="B3393" t="inlineStr">
         <is>
-          <t>Euphorbia cyparissias</t>
+          <t>Dorycnium pentaphyllum agg.</t>
         </is>
       </c>
       <c r="C3393">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3394">
@@ -51042,7 +51042,7 @@
       </c>
       <c r="B3394" t="inlineStr">
         <is>
-          <t>Falcaria vulgaris</t>
+          <t>Euphorbia cyparissias</t>
         </is>
       </c>
       <c r="C3394">
@@ -51057,11 +51057,11 @@
       </c>
       <c r="B3395" t="inlineStr">
         <is>
-          <t>Festuca rupicola</t>
+          <t>Falcaria vulgaris</t>
         </is>
       </c>
       <c r="C3395">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3396">
@@ -51072,11 +51072,11 @@
       </c>
       <c r="B3396" t="inlineStr">
         <is>
-          <t>Fragaria vesca</t>
+          <t>Festuca rupicola</t>
         </is>
       </c>
       <c r="C3396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3397">
@@ -51087,11 +51087,11 @@
       </c>
       <c r="B3397" t="inlineStr">
         <is>
-          <t>Galium verum</t>
+          <t>Fragaria vesca</t>
         </is>
       </c>
       <c r="C3397">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3398">
@@ -51102,11 +51102,11 @@
       </c>
       <c r="B3398" t="inlineStr">
         <is>
-          <t>Inula salicina</t>
+          <t>Galium verum</t>
         </is>
       </c>
       <c r="C3398">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3399">
@@ -51117,7 +51117,7 @@
       </c>
       <c r="B3399" t="inlineStr">
         <is>
-          <t>Knautia arvensis agg.</t>
+          <t>Inula salicina</t>
         </is>
       </c>
       <c r="C3399">
@@ -51132,7 +51132,7 @@
       </c>
       <c r="B3400" t="inlineStr">
         <is>
-          <t>Koeleria pyramidata</t>
+          <t>Knautia arvensis agg.</t>
         </is>
       </c>
       <c r="C3400">
@@ -51147,11 +51147,11 @@
       </c>
       <c r="B3401" t="inlineStr">
         <is>
-          <t>Ligustrum vulgare</t>
+          <t>Koeleria pyramidata</t>
         </is>
       </c>
       <c r="C3401">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3402">
@@ -51162,11 +51162,11 @@
       </c>
       <c r="B3402" t="inlineStr">
         <is>
-          <t>Lithospermum officinale</t>
+          <t>Ligustrum vulgare</t>
         </is>
       </c>
       <c r="C3402">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3403">
@@ -51177,7 +51177,7 @@
       </c>
       <c r="B3403" t="inlineStr">
         <is>
-          <t>Lotus corniculatus</t>
+          <t>Lithospermum officinale</t>
         </is>
       </c>
       <c r="C3403">
@@ -51192,7 +51192,7 @@
       </c>
       <c r="B3404" t="inlineStr">
         <is>
-          <t>Plantago media</t>
+          <t>Lotus corniculatus</t>
         </is>
       </c>
       <c r="C3404">
@@ -51207,11 +51207,11 @@
       </c>
       <c r="B3405" t="inlineStr">
         <is>
-          <t>Poa pratensis agg.</t>
+          <t>Plantago media</t>
         </is>
       </c>
       <c r="C3405">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3406">
@@ -51222,11 +51222,11 @@
       </c>
       <c r="B3406" t="inlineStr">
         <is>
-          <t>Polygala major</t>
+          <t>Poa pratensis agg.</t>
         </is>
       </c>
       <c r="C3406">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3407">
@@ -51237,7 +51237,7 @@
       </c>
       <c r="B3407" t="inlineStr">
         <is>
-          <t>Potentilla heptaphylla</t>
+          <t>Polygala major</t>
         </is>
       </c>
       <c r="C3407">
@@ -51252,11 +51252,11 @@
       </c>
       <c r="B3408" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Potentilla heptaphylla</t>
         </is>
       </c>
       <c r="C3408">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3409">
@@ -51267,11 +51267,11 @@
       </c>
       <c r="B3409" t="inlineStr">
         <is>
-          <t>Prunus spinosa</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="C3409">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3410">
@@ -51282,11 +51282,11 @@
       </c>
       <c r="B3410" t="inlineStr">
         <is>
-          <t>Pyrus communis agg.</t>
+          <t>Prunus spinosa</t>
         </is>
       </c>
       <c r="C3410">
-        <v>0.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3411">
@@ -51297,11 +51297,11 @@
       </c>
       <c r="B3411" t="inlineStr">
         <is>
-          <t>Ranunculus polyanthemos</t>
+          <t>Pyrus communis agg.</t>
         </is>
       </c>
       <c r="C3411">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3412">
@@ -51312,11 +51312,11 @@
       </c>
       <c r="B3412" t="inlineStr">
         <is>
-          <t>Rhamnus cathartica</t>
+          <t>Ranunculus polyanthemos</t>
         </is>
       </c>
       <c r="C3412">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3413">
@@ -51327,11 +51327,11 @@
       </c>
       <c r="B3413" t="inlineStr">
         <is>
-          <t>Rosa canina agg.</t>
+          <t>Rhamnus cathartica</t>
         </is>
       </c>
       <c r="C3413">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3414">
@@ -51342,11 +51342,11 @@
       </c>
       <c r="B3414" t="inlineStr">
         <is>
-          <t>Salvia verticillata</t>
+          <t>Rosa canina agg.</t>
         </is>
       </c>
       <c r="C3414">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3415">
@@ -51357,11 +51357,11 @@
       </c>
       <c r="B3415" t="inlineStr">
         <is>
-          <t>Sanguisorba minor</t>
+          <t>Salvia verticillata</t>
         </is>
       </c>
       <c r="C3415">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3416">
@@ -51372,11 +51372,11 @@
       </c>
       <c r="B3416" t="inlineStr">
         <is>
-          <t>Teucrium chamaedrys</t>
+          <t>Sanguisorba minor</t>
         </is>
       </c>
       <c r="C3416">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3417">
@@ -51387,11 +51387,11 @@
       </c>
       <c r="B3417" t="inlineStr">
         <is>
-          <t>Trifolium montanum</t>
+          <t>Teucrium chamaedrys</t>
         </is>
       </c>
       <c r="C3417">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3418">
@@ -51402,11 +51402,11 @@
       </c>
       <c r="B3418" t="inlineStr">
         <is>
-          <t>Vincetoxicum hirundinaria</t>
+          <t>Trifolium montanum</t>
         </is>
       </c>
       <c r="C3418">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3419">
@@ -51417,11 +51417,11 @@
       </c>
       <c r="B3419" t="inlineStr">
         <is>
-          <t>Viola hirta</t>
+          <t>Vincetoxicum hirundinaria</t>
         </is>
       </c>
       <c r="C3419">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3420">
@@ -51432,11 +51432,11 @@
       </c>
       <c r="B3420" t="inlineStr">
         <is>
-          <t>Viola riviniana agg.</t>
+          <t>Viola hirta</t>
         </is>
       </c>
       <c r="C3420">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3421">
@@ -51445,8 +51445,13 @@
           <t>ENV48_1</t>
         </is>
       </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>Viola riviniana agg.</t>
+        </is>
+      </c>
       <c r="C3421">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3422">
@@ -52397,11 +52402,11 @@
       </c>
       <c r="B3485" t="inlineStr">
         <is>
-          <t>Carex caryophyllea</t>
+          <t>Carex flacca</t>
         </is>
       </c>
       <c r="C3485">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3486">
@@ -52412,11 +52417,11 @@
       </c>
       <c r="B3486" t="inlineStr">
         <is>
-          <t>Carex flacca</t>
+          <t>Carex humilis</t>
         </is>
       </c>
       <c r="C3486">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3487">
@@ -52427,11 +52432,11 @@
       </c>
       <c r="B3487" t="inlineStr">
         <is>
-          <t>Carex humilis</t>
+          <t>Carex michelii</t>
         </is>
       </c>
       <c r="C3487">
-        <v>15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3488">
@@ -56662,7 +56667,7 @@
       </c>
       <c r="B3770" t="inlineStr">
         <is>
-          <t>Fragaria vesca</t>
+          <t>Fragaria viridis</t>
         </is>
       </c>
       <c r="C3770">
